--- a/statistics/SPSS/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.011508270339792043</v>
+        <v>-0.010549247811476037</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0032862028909458885</v>
+        <v>-0.0030123526500337172</v>
       </c>
       <c r="C2" s="0">
-        <v>0.012518939319533268</v>
+        <v>0.011475694376238826</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0073888844075179483</v>
+        <v>-0.0067731440402247489</v>
       </c>
       <c r="E2" s="0">
-        <v>0.013537885509935149</v>
+        <v>0.012409728384107227</v>
       </c>
       <c r="F2" s="0">
-        <v>0.010301998894003239</v>
+        <v>0.0094434989861696128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0053196582395217962</v>
+        <v>0.0048763533862282993</v>
       </c>
       <c r="B3" s="0">
-        <v>0.014671929377811782</v>
+        <v>0.013449268596327446</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0064880761263662601</v>
+        <v>-0.0059474031158357199</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.015917302362315172</v>
+        <v>-0.014590860498788882</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00087281289327323375</v>
+        <v>0.00080007848550045502</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.001994375171884194</v>
+        <v>-0.0018281772408938468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0030855165126264239</v>
+        <v>-0.0028283901365742381</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.00021642663028736964</v>
+        <v>-0.00019839107776339904</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00078470559019760966</v>
+        <v>0.00071931345768111443</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.008898106724193694</v>
+        <v>-0.0081565978305109255</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00045302467117877554</v>
+        <v>-0.0004152726152472086</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0015862407166754577</v>
+        <v>-0.0014540539902858085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.01066139948127523</v>
+        <v>-0.0097729495245022779</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0036947205919537485</v>
+        <v>0.0033868272092909824</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.014850007682152028</v>
+        <v>-0.013612507041972643</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0011811920573449042</v>
+        <v>-0.00108275938589944</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0041056689474207875</v>
+        <v>0.0037635298684690621</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0029077547096612866</v>
+        <v>0.0026654418171895011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0054859620077011839</v>
+        <v>0.0050287985070593955</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0040992698192324206</v>
+        <v>0.0037576640009630291</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0065160219875070313</v>
+        <v>-0.0059730201552147533</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0071373828407076123</v>
+        <v>-0.0065426009373153182</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0029844719285712917</v>
+        <v>0.0027357659345237373</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0076029351391670441</v>
+        <v>-0.0069693572109031376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0022973394336584796</v>
+        <v>0.0021058944808536317</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0017147874041618938</v>
+        <v>-0.0015718884538151179</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0044611111804787329</v>
+        <v>0.0040893519154388824</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0029895225547399429</v>
+        <v>-0.002740395675178281</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0027626251422835368</v>
+        <v>-0.0025324063804265384</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011883848840370803</v>
+        <v>-0.0010893528103673167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0021038077304061653</v>
+        <v>-0.0019284904195389918</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0089842390567028141</v>
+        <v>0.0082355524686442694</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0082344195180633906</v>
+        <v>0.0075482178915580733</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0011418399099558108</v>
+        <v>-0.0010466865841262107</v>
       </c>
       <c r="E8" s="0">
-        <v>0.01053013164814412</v>
+        <v>0.0096526206774654733</v>
       </c>
       <c r="F8" s="0">
-        <v>0.013903593387289054</v>
+        <v>0.012744960605014954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0083832870394135728</v>
+        <v>-0.0076846797861290783</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0063428456936771294</v>
+        <v>-0.0058142752192040514</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.020080428066942685</v>
+        <v>-0.018407059061364139</v>
       </c>
       <c r="D9" s="0">
-        <v>0.012906696861148176</v>
+        <v>0.011831138789385853</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0019401340605711137</v>
+        <v>0.0017784562221901945</v>
       </c>
       <c r="F9" s="0">
-        <v>0.011553780146457471</v>
+        <v>0.010590965134252728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0023814268790519344</v>
+        <v>0.0021829746391309746</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0054013492228595639</v>
+        <v>-0.0049512367876211605</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0024298719950894276</v>
+        <v>-0.0022273826621652948</v>
       </c>
       <c r="D10" s="0">
-        <v>0.005360642280627631</v>
+        <v>0.0049139220905753678</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0044613595338232892</v>
+        <v>-0.0040895795726714479</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00049218633434935932</v>
+        <v>0.00045117080648693353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0054217722695983905</v>
+        <v>-0.0049699579137985062</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00016510313993153836</v>
+        <v>0.00015134454493720417</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0091141395489220955</v>
+        <v>0.0083546279198453144</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00096832433788951455</v>
+        <v>0.00088763064306540684</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0034051697095175415</v>
+        <v>-0.0031214055670577556</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00047610736016531763</v>
+        <v>0.00043643174681820551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0031634396622955141</v>
+        <v>-0.0028998196904375106</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010283849320670641</v>
+        <v>0.0094268618772813395</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0096944649739681144</v>
+        <v>-0.0088865928928041071</v>
       </c>
       <c r="D12" s="0">
-        <v>0.014058909743774078</v>
+        <v>0.012887333931792977</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0073260766000520228</v>
+        <v>0.006715570216714345</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0008686965208704045</v>
+        <v>-0.00079630514413123188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0081672078239583834</v>
+        <v>0.0074866071719618399</v>
       </c>
       <c r="B13" s="0">
-        <v>0.01103376809898543</v>
+        <v>0.010114287424070084</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.010296657321828967</v>
+        <v>-0.0094386025450098887</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0030350084697911006</v>
+        <v>0.0027820910973084811</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.012714808004663042</v>
+        <v>-0.011655240670941175</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0062700669107991214</v>
+        <v>-0.0057475613348992594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0040472007863312232</v>
+        <v>-0.0037099340541369985</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0059715512614063604</v>
+        <v>-0.00547392198962246</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0030372794347949539</v>
+        <v>0.0027841728152286915</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0026480876864507785</v>
+        <v>0.0024274137125798734</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.002525676438719926</v>
+        <v>-0.0023152034021599599</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0057313678855181183</v>
+        <v>-0.0052537538950582219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0061943777358797192</v>
+        <v>-0.0056781795912231037</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0039170546416923691</v>
+        <v>0.0035906334215512481</v>
       </c>
       <c r="C15" s="0">
-        <v>0.008470852455814859</v>
+        <v>0.007764948084496931</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.000979284732145147</v>
+        <v>-0.00089767767113302366</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0068549278616704123</v>
+        <v>0.0062836838731979705</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.013364114606350647</v>
+        <v>-0.012250438389154739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.00083687583687583333</v>
+        <v>0.0007671361838028079</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0086074870971896145</v>
+        <v>0.0078901965057571188</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0026081982603721743</v>
+        <v>-0.0023908484053411783</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0054525311962383138</v>
+        <v>0.0049981535965517854</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0041160456180218408</v>
+        <v>0.0037730418165200508</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0031210698303623108</v>
+        <v>-0.0028609806778321367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0020834640399857995</v>
+        <v>0.0019098420366536195</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0052336516050148219</v>
+        <v>-0.0047975139712636283</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00094532703228356052</v>
+        <v>0.00086654977959327306</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0024193285062850678</v>
+        <v>0.0022177177974279372</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.0017143060621321871</v>
+        <v>-0.0015714472236211807</v>
       </c>
       <c r="F17" s="0">
-        <v>0.00021937521937523408</v>
+        <v>0.00020109395109396688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0037697174424863034</v>
+        <v>0.0034555743222791646</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0054848442393391483</v>
+        <v>-0.005027773886060849</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0030001021049613497</v>
+        <v>0.0027500935962146145</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0021678186639823849</v>
+        <v>0.0019871671086505727</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00010732883403691273</v>
+        <v>9.8384764533832048e-05</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0073683198941998373</v>
+        <v>-0.0067542932363498231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0092881143088182627</v>
+        <v>-0.0085141047830833705</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0092576540898432758</v>
+        <v>-0.008486182915689644</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0034197805936936887</v>
+        <v>-0.0031347988775524416</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0046506155336415167</v>
+        <v>-0.004263064239171388</v>
       </c>
       <c r="E19" s="0">
-        <v>0.005442258350219914</v>
+        <v>0.0049887368210349836</v>
       </c>
       <c r="F19" s="0">
-        <v>0.0072322098970065973</v>
+        <v>0.006629525738922698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.013319622636392775</v>
+        <v>-0.012209654083360028</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0094447251197822824</v>
+        <v>-0.008657664693133782</v>
       </c>
       <c r="C20" s="0">
-        <v>0.011908180386441231</v>
+        <v>0.010915832020904459</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0054514018708392564</v>
+        <v>0.0049971183816026887</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0095009660227051429</v>
+        <v>0.0087092188541463555</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0025928157824393894</v>
+        <v>0.0023767478005694009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00082047908134860736</v>
+        <v>-0.00075210582456958219</v>
       </c>
       <c r="B21" s="0">
-        <v>0.024548550864340268</v>
+        <v>0.022502838292311922</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.013535883101100488</v>
+        <v>-0.012407892842675433</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0058039892136002025</v>
+        <v>0.0053203234458001902</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0015765286074210516</v>
+        <v>0.0014451512234693042</v>
       </c>
       <c r="F21" s="0">
-        <v>0.0091328786980961196</v>
+        <v>0.0083718054732547231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0017473713125886192</v>
+        <v>-0.0016017570365396139</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0055727870492363607</v>
+        <v>-0.0051083881284666177</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.0044818122881364331</v>
+        <v>-0.0041083279307916887</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0043986390062577541</v>
+        <v>-0.0040320857557362422</v>
       </c>
       <c r="E22" s="0">
-        <v>0.025837792297419587</v>
+        <v>0.023684642939301337</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.00482752656665697</v>
+        <v>-0.0044252326861022595</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0022077177874279819</v>
+        <v>-0.0020237413051422681</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0018642745350820333</v>
+        <v>-0.0017089183238252204</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0037015677747943287</v>
+        <v>-0.003393103793561475</v>
       </c>
       <c r="D23" s="0">
-        <v>0.003631112326764524</v>
+        <v>0.0033285196328674826</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.006200046817895849</v>
+        <v>-0.0056833762497378593</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.018882536545580086</v>
+        <v>-0.017308991833448389</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0075024205458987803</v>
+        <v>0.0068772188337405948</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0057084410631322025</v>
+        <v>-0.0052327376412044657</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0032133727785901289</v>
+        <v>-0.0029455917137076459</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0030106557566511316</v>
+        <v>-0.0027597677769302109</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0034197517035045033</v>
+        <v>0.003134772394879165</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0049937773049900658</v>
+        <v>0.0045776291962409121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0078031652244545113</v>
+        <v>0.0071529014557500381</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0024213937257415719</v>
+        <v>0.0022196109152630428</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.0015553256659975589</v>
+        <v>-0.0014257151938311674</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.0076872468176815978</v>
+        <v>-0.007046642916208129</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.0021087430460666745</v>
+        <v>-0.0019330144588943776</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0016181836834009977</v>
+        <v>-0.0014833350431176229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.011476319256639667</v>
+        <v>0.010519959318586347</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0091598495325203311</v>
+        <v>-0.008396528738143616</v>
       </c>
       <c r="C26" s="0">
-        <v>0.009522601710464984</v>
+        <v>0.0087290515679262215</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0037553328314197942</v>
+        <v>-0.0034423884288015127</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.00054353858701686186</v>
+        <v>-0.00049824370476547752</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0052193985484693395</v>
+        <v>-0.0047844486694302302</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.007523707752540687</v>
+        <v>0.0068967321064956622</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0029789651261810379</v>
+        <v>0.0027307180323326019</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0052759785679039883</v>
+        <v>0.0048363136872454082</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0041399389225475758</v>
+        <v>0.003794944012335294</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0042791347139173042</v>
+        <v>-0.0039225401544242255</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.012346903651251462</v>
+        <v>-0.011317995013647192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0034953697479577495</v>
+        <v>-0.0032040889356279578</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0017016160073664299</v>
+        <v>0.001559814673419202</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0042976818339137135</v>
+        <v>0.0039395416810875383</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0091171251109139206</v>
+        <v>-0.0083573646850044481</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0011955430308465687</v>
+        <v>0.0010959144449426694</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0074548923653783017</v>
+        <v>-0.0068336513349301908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0011235268672339371</v>
+        <v>-0.0010298996282977757</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0035617861704818066</v>
+        <v>-0.0032649706562750402</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0069015232058710074</v>
+        <v>0.0063263962720485067</v>
       </c>
       <c r="D29" s="0">
-        <v>0.00092923931933217019</v>
+        <v>0.00085180270938778335</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0049926832535528154</v>
+        <v>0.0045766263157567544</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0061696366044191875</v>
+        <v>-0.0056555002207176186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.012563184302314789</v>
+        <v>0.011516252277121802</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0069585395672351891</v>
+        <v>-0.0063786612699656131</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.006752564723579213</v>
+        <v>-0.0061898509966142323</v>
       </c>
       <c r="D30" s="0">
-        <v>0.012595104986409367</v>
+        <v>0.011545512904208577</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.0050630528891398574</v>
+        <v>-0.00464113181504483</v>
       </c>
       <c r="F30" s="0">
-        <v>0.00062226034766071914</v>
+        <v>0.00057040531868904343</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.010549247811476037</v>
+        <v>-0.011508270339792043</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0030123526500337172</v>
+        <v>-0.0032862028909458885</v>
       </c>
       <c r="C2" s="0">
-        <v>0.011475694376238826</v>
+        <v>0.012518939319533268</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0067731440402247489</v>
+        <v>-0.0073888844075179483</v>
       </c>
       <c r="E2" s="0">
-        <v>0.012409728384107227</v>
+        <v>0.013537885509935149</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0094434989861696128</v>
+        <v>0.010301998894003239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0048763533862282993</v>
+        <v>0.0053196582395217962</v>
       </c>
       <c r="B3" s="0">
-        <v>0.013449268596327446</v>
+        <v>0.014671929377811782</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0059474031158357199</v>
+        <v>-0.0064880761263662601</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.014590860498788882</v>
+        <v>-0.015917302362315172</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00080007848550045502</v>
+        <v>0.00087281289327323375</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0018281772408938468</v>
+        <v>-0.001994375171884194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0028283901365742381</v>
+        <v>-0.0030855165126264239</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.00019839107776339904</v>
+        <v>-0.00021642663028736964</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00071931345768111443</v>
+        <v>0.00078470559019760966</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0081565978305109255</v>
+        <v>-0.008898106724193694</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0004152726152472086</v>
+        <v>-0.00045302467117877554</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0014540539902858085</v>
+        <v>-0.0015862407166754577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0097729495245022779</v>
+        <v>-0.01066139948127523</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0033868272092909824</v>
+        <v>0.0036947205919537485</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.013612507041972643</v>
+        <v>-0.014850007682152028</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00108275938589944</v>
+        <v>-0.0011811920573449042</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0037635298684690621</v>
+        <v>0.0041056689474207875</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0026654418171895011</v>
+        <v>0.0029077547096612866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0050287985070593955</v>
+        <v>0.0054859620077011839</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0037576640009630291</v>
+        <v>0.0040992698192324206</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0059730201552147533</v>
+        <v>-0.0065160219875070313</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0065426009373153182</v>
+        <v>-0.0071373828407076123</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0027357659345237373</v>
+        <v>0.0029844719285712917</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0069693572109031376</v>
+        <v>-0.0076029351391670441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0021058944808536317</v>
+        <v>0.0022973394336584796</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0015718884538151179</v>
+        <v>-0.0017147874041618938</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0040893519154388824</v>
+        <v>0.0044611111804787329</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.002740395675178281</v>
+        <v>-0.0029895225547399429</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0025324063804265384</v>
+        <v>-0.0027626251422835368</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0010893528103673167</v>
+        <v>-0.0011883848840370803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0019284904195389918</v>
+        <v>-0.0021038077304061653</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0082355524686442694</v>
+        <v>0.0089842390567028141</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0075482178915580733</v>
+        <v>0.0082344195180633906</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0010466865841262107</v>
+        <v>-0.0011418399099558108</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0096526206774654733</v>
+        <v>0.01053013164814412</v>
       </c>
       <c r="F8" s="0">
-        <v>0.012744960605014954</v>
+        <v>0.013903593387289054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0076846797861290783</v>
+        <v>-0.0083832870394135728</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0058142752192040514</v>
+        <v>-0.0063428456936771294</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.018407059061364139</v>
+        <v>-0.020080428066942685</v>
       </c>
       <c r="D9" s="0">
-        <v>0.011831138789385853</v>
+        <v>0.012906696861148176</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0017784562221901945</v>
+        <v>0.0019401340605711137</v>
       </c>
       <c r="F9" s="0">
-        <v>0.010590965134252728</v>
+        <v>0.011553780146457471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0021829746391309746</v>
+        <v>0.0023814268790519344</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0049512367876211605</v>
+        <v>-0.0054013492228595639</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0022273826621652948</v>
+        <v>-0.0024298719950894276</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0049139220905753678</v>
+        <v>0.005360642280627631</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0040895795726714479</v>
+        <v>-0.0044613595338232892</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00045117080648693353</v>
+        <v>0.00049218633434935932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0049699579137985062</v>
+        <v>-0.0054217722695983905</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00015134454493720417</v>
+        <v>0.00016510313993153836</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0083546279198453144</v>
+        <v>0.0091141395489220955</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00088763064306540684</v>
+        <v>0.00096832433788951455</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0031214055670577556</v>
+        <v>-0.0034051697095175415</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00043643174681820551</v>
+        <v>0.00047610736016531763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0028998196904375106</v>
+        <v>-0.0031634396622955141</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0094268618772813395</v>
+        <v>0.010283849320670641</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0088865928928041071</v>
+        <v>-0.0096944649739681144</v>
       </c>
       <c r="D12" s="0">
-        <v>0.012887333931792977</v>
+        <v>0.014058909743774078</v>
       </c>
       <c r="E12" s="0">
-        <v>0.006715570216714345</v>
+        <v>0.0073260766000520228</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00079630514413123188</v>
+        <v>-0.0008686965208704045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0074866071719618399</v>
+        <v>0.0081672078239583834</v>
       </c>
       <c r="B13" s="0">
-        <v>0.010114287424070084</v>
+        <v>0.01103376809898543</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.0094386025450098887</v>
+        <v>-0.010296657321828967</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0027820910973084811</v>
+        <v>0.0030350084697911006</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.011655240670941175</v>
+        <v>-0.012714808004663042</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0057475613348992594</v>
+        <v>-0.0062700669107991214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0037099340541369985</v>
+        <v>-0.0040472007863312232</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.00547392198962246</v>
+        <v>-0.0059715512614063604</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0027841728152286915</v>
+        <v>0.0030372794347949539</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0024274137125798734</v>
+        <v>0.0026480876864507785</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0023152034021599599</v>
+        <v>-0.002525676438719926</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0052537538950582219</v>
+        <v>-0.0057313678855181183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0056781795912231037</v>
+        <v>-0.0061943777358797192</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0035906334215512481</v>
+        <v>0.0039170546416923691</v>
       </c>
       <c r="C15" s="0">
-        <v>0.007764948084496931</v>
+        <v>0.008470852455814859</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.00089767767113302366</v>
+        <v>-0.000979284732145147</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0062836838731979705</v>
+        <v>0.0068549278616704123</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.012250438389154739</v>
+        <v>-0.013364114606350647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0007671361838028079</v>
+        <v>0.00083687583687583333</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0078901965057571188</v>
+        <v>0.0086074870971896145</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0023908484053411783</v>
+        <v>-0.0026081982603721743</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0049981535965517854</v>
+        <v>0.0054525311962383138</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0037730418165200508</v>
+        <v>0.0041160456180218408</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0028609806778321367</v>
+        <v>-0.0031210698303623108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0019098420366536195</v>
+        <v>0.0020834640399857995</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0047975139712636283</v>
+        <v>-0.0052336516050148219</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00086654977959327306</v>
+        <v>0.00094532703228356052</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0022177177974279372</v>
+        <v>0.0024193285062850678</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.0015714472236211807</v>
+        <v>-0.0017143060621321871</v>
       </c>
       <c r="F17" s="0">
-        <v>0.00020109395109396688</v>
+        <v>0.00021937521937523408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0034555743222791646</v>
+        <v>0.0037697174424863034</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.005027773886060849</v>
+        <v>-0.0054848442393391483</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0027500935962146145</v>
+        <v>0.0030001021049613497</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0019871671086505727</v>
+        <v>0.0021678186639823849</v>
       </c>
       <c r="E18" s="0">
-        <v>9.8384764533832048e-05</v>
+        <v>0.00010732883403691273</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0067542932363498231</v>
+        <v>-0.0073683198941998373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0085141047830833705</v>
+        <v>-0.0092881143088182627</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.008486182915689644</v>
+        <v>-0.0092576540898432758</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0031347988775524416</v>
+        <v>-0.0034197805936936887</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.004263064239171388</v>
+        <v>-0.0046506155336415167</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0049887368210349836</v>
+        <v>0.005442258350219914</v>
       </c>
       <c r="F19" s="0">
-        <v>0.006629525738922698</v>
+        <v>0.0072322098970065973</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.012209654083360028</v>
+        <v>-0.013319622636392775</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.008657664693133782</v>
+        <v>-0.0094447251197822824</v>
       </c>
       <c r="C20" s="0">
-        <v>0.010915832020904459</v>
+        <v>0.011908180386441231</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0049971183816026887</v>
+        <v>0.0054514018708392564</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0087092188541463555</v>
+        <v>0.0095009660227051429</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0023767478005694009</v>
+        <v>0.0025928157824393894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00075210582456958219</v>
+        <v>-0.00082047908134860736</v>
       </c>
       <c r="B21" s="0">
-        <v>0.022502838292311922</v>
+        <v>0.024548550864340268</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.012407892842675433</v>
+        <v>-0.013535883101100488</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0053203234458001902</v>
+        <v>0.0058039892136002025</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0014451512234693042</v>
+        <v>0.0015765286074210516</v>
       </c>
       <c r="F21" s="0">
-        <v>0.0083718054732547231</v>
+        <v>0.0091328786980961196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0016017570365396139</v>
+        <v>-0.0017473713125886192</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0051083881284666177</v>
+        <v>-0.0055727870492363607</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.0041083279307916887</v>
+        <v>-0.0044818122881364331</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0040320857557362422</v>
+        <v>-0.0043986390062577541</v>
       </c>
       <c r="E22" s="0">
-        <v>0.023684642939301337</v>
+        <v>0.025837792297419587</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0044252326861022595</v>
+        <v>-0.00482752656665697</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0020237413051422681</v>
+        <v>-0.0022077177874279819</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0017089183238252204</v>
+        <v>-0.0018642745350820333</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.003393103793561475</v>
+        <v>-0.0037015677747943287</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0033285196328674826</v>
+        <v>0.003631112326764524</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.0056833762497378593</v>
+        <v>-0.006200046817895849</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.017308991833448389</v>
+        <v>-0.018882536545580086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0068772188337405948</v>
+        <v>0.0075024205458987803</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0052327376412044657</v>
+        <v>-0.0057084410631322025</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0029455917137076459</v>
+        <v>-0.0032133727785901289</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0027597677769302109</v>
+        <v>-0.0030106557566511316</v>
       </c>
       <c r="E24" s="0">
-        <v>0.003134772394879165</v>
+        <v>0.0034197517035045033</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0045776291962409121</v>
+        <v>0.0049937773049900658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0071529014557500381</v>
+        <v>0.0078031652244545113</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0022196109152630428</v>
+        <v>0.0024213937257415719</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.0014257151938311674</v>
+        <v>-0.0015553256659975589</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.007046642916208129</v>
+        <v>-0.0076872468176815978</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.0019330144588943776</v>
+        <v>-0.0021087430460666745</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0014833350431176229</v>
+        <v>-0.0016181836834009977</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.010519959318586347</v>
+        <v>0.011476319256639667</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.008396528738143616</v>
+        <v>-0.0091598495325203311</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0087290515679262215</v>
+        <v>0.009522601710464984</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0034423884288015127</v>
+        <v>-0.0037553328314197942</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.00049824370476547752</v>
+        <v>-0.00054353858701686186</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0047844486694302302</v>
+        <v>-0.0052193985484693395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0068967321064956622</v>
+        <v>0.007523707752540687</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0027307180323326019</v>
+        <v>0.0029789651261810379</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0048363136872454082</v>
+        <v>0.0052759785679039883</v>
       </c>
       <c r="D27" s="0">
-        <v>0.003794944012335294</v>
+        <v>0.0041399389225475758</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0039225401544242255</v>
+        <v>-0.0042791347139173042</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.011317995013647192</v>
+        <v>-0.012346903651251462</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0032040889356279578</v>
+        <v>-0.0034953697479577495</v>
       </c>
       <c r="B28" s="0">
-        <v>0.001559814673419202</v>
+        <v>0.0017016160073664299</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0039395416810875383</v>
+        <v>0.0042976818339137135</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0083573646850044481</v>
+        <v>-0.0091171251109139206</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0010959144449426694</v>
+        <v>0.0011955430308465687</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0068336513349301908</v>
+        <v>-0.0074548923653783017</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0010298996282977757</v>
+        <v>-0.0011235268672339371</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0032649706562750402</v>
+        <v>-0.0035617861704818066</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0063263962720485067</v>
+        <v>0.0069015232058710074</v>
       </c>
       <c r="D29" s="0">
-        <v>0.00085180270938778335</v>
+        <v>0.00092923931933217019</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0045766263157567544</v>
+        <v>0.0049926832535528154</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0056555002207176186</v>
+        <v>-0.0061696366044191875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.011516252277121802</v>
+        <v>0.012563184302314789</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0063786612699656131</v>
+        <v>-0.0069585395672351891</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.0061898509966142323</v>
+        <v>-0.006752564723579213</v>
       </c>
       <c r="D30" s="0">
-        <v>0.011545512904208577</v>
+        <v>0.012595104986409367</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.00464113181504483</v>
+        <v>-0.0050630528891398574</v>
       </c>
       <c r="F30" s="0">
-        <v>0.00057040531868904343</v>
+        <v>0.00062226034766071914</v>
       </c>
     </row>
   </sheetData>
